--- a/测试文档.xlsx
+++ b/测试文档.xlsx
@@ -28,14 +28,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://localhost:18005/blog/admin/insertConsume?money=2.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost:18005/blog/login?username=xiaosong&amp;password=xiaosong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>录入消费数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -44,7 +36,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://localhost:18005/blog/admin/insertStandard?eatMoney=1500</t>
+    <t>http://localhost:18008/blog/login?username=xiaosong&amp;password=xiaosong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:18008/blog/admin/insertConsume?money=2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:18008/blog/admin/insertStandard?eatMoney=1500</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -408,7 +408,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -430,20 +430,20 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
